--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DF6045E6-2DF1-47B4-B9C1-EBAC58618CC2}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94BE4790-9016-4615-85E1-F756C6E245D0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>Composant</t>
   </si>
@@ -183,12 +183,6 @@
     <t>TVS</t>
   </si>
   <si>
-    <t>5VWM</t>
-  </si>
-  <si>
-    <t>5Vwm, 8Vc</t>
-  </si>
-  <si>
     <t>Canal N</t>
   </si>
   <si>
@@ -286,6 +280,42 @@
   </si>
   <si>
     <t>Pas de 3,5mm, bornier vertical femelle détrompeur</t>
+  </si>
+  <si>
+    <t>6Vwm</t>
+  </si>
+  <si>
+    <t>5Vwm</t>
+  </si>
+  <si>
+    <t>SOT-123-2</t>
+  </si>
+  <si>
+    <t>TV02W6V0B-G</t>
+  </si>
+  <si>
+    <t>5Vwm, 8Vc, bidirectionnelle</t>
+  </si>
+  <si>
+    <t>6Vwm, 10,3Vc, bidirectionnelle</t>
+  </si>
+  <si>
+    <t>Commutateur analogique</t>
+  </si>
+  <si>
+    <t>2*SPDT</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX4528CSA+ </t>
+  </si>
+  <si>
+    <t>2 voies</t>
+  </si>
+  <si>
+    <t>Pas de 2,54mm, à vis, 90°</t>
   </si>
 </sst>
 </file>
@@ -653,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -751,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -798,6 +828,9 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="4">
+        <v>1206</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
@@ -844,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4">
         <v>1206</v>
@@ -880,7 +913,7 @@
         <v>1206</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4">
         <v>9</v>
@@ -891,10 +924,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1206</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>6</v>
@@ -902,42 +938,39 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1206</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,13 +978,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1725656</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -959,19 +995,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4">
         <v>18</v>
@@ -982,50 +1018,53 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,33 +1072,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -1076,27 +1115,24 @@
         <v>41</v>
       </c>
       <c r="F24" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1E-3</v>
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,73 +1140,73 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
+      <c r="E27" s="3">
+        <v>1E-3</v>
       </c>
       <c r="F27" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
         <v>6</v>
@@ -1178,53 +1214,59 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="4">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
       </c>
       <c r="F31" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>18</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
       </c>
       <c r="F32" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
@@ -1241,52 +1283,120 @@
         <v>66</v>
       </c>
       <c r="F33" s="4">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94BE4790-9016-4615-85E1-F756C6E245D0}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{056C0C6C-23CB-434B-B97B-A8FE2BA91D0E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{056C0C6C-23CB-434B-B97B-A8FE2BA91D0E}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0728B309-E661-4E71-BA9B-763704A093FD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>Composant</t>
   </si>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>Pas de 2,54mm, à vis, 90°</t>
+  </si>
+  <si>
+    <t>0,26V</t>
+  </si>
+  <si>
+    <t>0,45V</t>
+  </si>
+  <si>
+    <t>SDM10M45SD</t>
+  </si>
+  <si>
+    <t>45V, Vs=0,45V</t>
+  </si>
+  <si>
+    <t>SOT-26</t>
   </si>
 </sst>
 </file>
@@ -359,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +383,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1106,9 @@
       <c r="A23" t="s">
         <v>37</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1103,19 +1124,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F24" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>11</v>
@@ -1132,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -1149,86 +1173,83 @@
         <v>41</v>
       </c>
       <c r="F26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1E-3</v>
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1E-3</v>
       </c>
       <c r="F28" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1237,104 +1258,107 @@
         <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F32" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
       </c>
       <c r="F33" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F35" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,38 +1366,41 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
-        <v>76</v>
+      <c r="D37" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>11</v>
@@ -1384,18 +1411,32 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>0</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0728B309-E661-4E71-BA9B-763704A093FD}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5540E3D3-25D5-4DF0-B92E-F8D6616A0815}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>Composant</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>SOT-26</t>
+  </si>
+  <si>
+    <t>600mW, 0,1%</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +968,7 @@
         <v>1206</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5540E3D3-25D5-4DF0-B92E-F8D6616A0815}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DCD04336-496F-4CCA-9D77-487A610A09D7}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
+    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Composant</t>
   </si>
@@ -333,7 +333,31 @@
     <t>SOT-26</t>
   </si>
   <si>
-    <t>600mW, 0,1%</t>
+    <t>660mW, 0,1%</t>
+  </si>
+  <si>
+    <t>Bouton poussoir</t>
+  </si>
+  <si>
+    <t>rouge, off - (on)</t>
+  </si>
+  <si>
+    <t>Sur boitier</t>
+  </si>
+  <si>
+    <t>vert, off - (on)</t>
+  </si>
+  <si>
+    <t>jaune, off - (on)</t>
+  </si>
+  <si>
+    <t>LP10A1AR</t>
+  </si>
+  <si>
+    <t>LP10A1AG</t>
+  </si>
+  <si>
+    <t>LP10A1AY</t>
   </si>
 </sst>
 </file>
@@ -377,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +413,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +948,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,7 +999,7 @@
         <v>102</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,7 +1039,7 @@
         <v>96</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,6 +1069,9 @@
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>83</v>
       </c>
@@ -1142,7 +1173,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,7 +1324,7 @@
         <v>90</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,7 +1426,7 @@
         <v>76</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,7 +1471,58 @@
         <v>94</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DCD04336-496F-4CCA-9D77-487A610A09D7}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4180690-C2C5-4A4A-842A-47B711F88047}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="21840" windowHeight="13140" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>Composant</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>LP10A1AY</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>pin header mâle, pas de 2,54mm</t>
+  </si>
+  <si>
+    <t>3 voies</t>
   </si>
 </sst>
 </file>
@@ -732,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,7 +957,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,7 +974,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,7 +1008,7 @@
         <v>102</v>
       </c>
       <c r="F15" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,7 +1048,7 @@
         <v>96</v>
       </c>
       <c r="F17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1068,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,7 +1253,7 @@
         <v>1E-3</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1293,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,7 +1333,7 @@
         <v>90</v>
       </c>
       <c r="F32" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1401,7 @@
         <v>63</v>
       </c>
       <c r="F36" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,7 +1418,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="F38" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +1480,7 @@
         <v>94</v>
       </c>
       <c r="F41" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,6 +1532,51 @@
       </c>
       <c r="F44" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helbe-my.sharepoint.com/personal/sylvain_dewez_student_hel_be/Documents/BAC 3/Stage/Déroulement/fichiers/Github/MICHA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4180690-C2C5-4A4A-842A-47B711F88047}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{3CD8F0E9-53A0-430D-9B8E-AE3D8DBE9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E51FFEBB-D9A9-4B32-BB69-EDD68AC16571}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{972C93A1-FAC3-45DF-81B5-0F0D252CCA50}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC91049-1AC9-4FFA-9ADA-FA91C3DFFAC3}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1350,7 @@
         <v>53</v>
       </c>
       <c r="F33" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
